--- a/biology/Zoologie/Chaetodipus/Chaetodipus.xlsx
+++ b/biology/Zoologie/Chaetodipus/Chaetodipus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetodipus est un genre de mammifères rongeurs de la famille des Heteromyidae. Ce sont des souris à poil dur qui font partie des souris à poches[1], c'est-à-dire à larges abajoues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetodipus est un genre de mammifères rongeurs de la famille des Heteromyidae. Ce sont des souris à poil dur qui font partie des souris à poches, c'est-à-dire à larges abajoues.
 Ce genre a été décrit pour la première fois en 1889 par un zoologiste américain, Clinton Hart Merriam (1855-1942).
 </t>
         </is>
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2012)[2], ITIS      (26 nov. 2012)[3], Catalogue of Life                                   (26 nov. 2012)[4], NCBI  (26 nov. 2012)[5] et Paleobiology Database                   (26 nov. 2012)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2012), ITIS      (26 nov. 2012), Catalogue of Life                                   (26 nov. 2012), NCBI  (26 nov. 2012) et Paleobiology Database                   (26 nov. 2012) :
 Chaetodipus arenarius Merriam, 1894
 Chaetodipus artus Osgood, 1900
-Chaetodipus baileyi (Merriam, 1894) - Souris à poche de Bailey[1]
-Chaetodipus californicus (Merriam, 1889) - Souris à poche de Californie[1]
+Chaetodipus baileyi (Merriam, 1894) - Souris à poche de Bailey
+Chaetodipus californicus (Merriam, 1889) - Souris à poche de Californie
 Chaetodipus dalquesti (Roth, 1976) - espèce non reconnue par ITIS, CatalogueofLife et TPCB
 Chaetodipus eremicus (Mearns, 1898) - espèce non reconnue par TPCB
 Chaetodipus fallax (Merriam, 1889)
